--- a/Hello Daffodils/Hello Daffodils/Daily Sales & Allocation/Daily Sales Nov'2020/Daily Sales 30.11.20.xlsx
+++ b/Hello Daffodils/Hello Daffodils/Daily Sales & Allocation/Daily Sales Nov'2020/Daily Sales 30.11.20.xlsx
@@ -1103,10 +1103,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1422,7 +1422,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="AB31" sqref="AB31"/>
+      <selection pane="bottomRight" activeCell="AT11" sqref="AT11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1525,49 +1525,49 @@
         <v>72</v>
       </c>
       <c r="B2" s="110"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="111"/>
-      <c r="T2" s="111"/>
-      <c r="U2" s="111"/>
-      <c r="V2" s="111"/>
-      <c r="W2" s="111"/>
-      <c r="X2" s="111"/>
-      <c r="Y2" s="111"/>
-      <c r="Z2" s="111"/>
-      <c r="AA2" s="111"/>
-      <c r="AB2" s="111"/>
-      <c r="AC2" s="111"/>
-      <c r="AD2" s="111"/>
-      <c r="AE2" s="111"/>
-      <c r="AF2" s="111"/>
-      <c r="AG2" s="111"/>
-      <c r="AH2" s="111"/>
-      <c r="AI2" s="111"/>
-      <c r="AJ2" s="111"/>
-      <c r="AK2" s="111"/>
-      <c r="AL2" s="111"/>
-      <c r="AM2" s="111"/>
-      <c r="AN2" s="111"/>
-      <c r="AO2" s="111"/>
-      <c r="AP2" s="111"/>
-      <c r="AQ2" s="111"/>
-      <c r="AR2" s="111"/>
-      <c r="AS2" s="111"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="112"/>
+      <c r="Z2" s="112"/>
+      <c r="AA2" s="112"/>
+      <c r="AB2" s="112"/>
+      <c r="AC2" s="112"/>
+      <c r="AD2" s="112"/>
+      <c r="AE2" s="112"/>
+      <c r="AF2" s="112"/>
+      <c r="AG2" s="112"/>
+      <c r="AH2" s="112"/>
+      <c r="AI2" s="112"/>
+      <c r="AJ2" s="112"/>
+      <c r="AK2" s="112"/>
+      <c r="AL2" s="112"/>
+      <c r="AM2" s="112"/>
+      <c r="AN2" s="112"/>
+      <c r="AO2" s="112"/>
+      <c r="AP2" s="112"/>
+      <c r="AQ2" s="112"/>
+      <c r="AR2" s="112"/>
+      <c r="AS2" s="112"/>
     </row>
     <row r="3" spans="1:50" ht="15.75" thickBot="1">
       <c r="A3" s="105" t="s">
@@ -1600,7 +1600,7 @@
       <c r="L3" s="100">
         <v>300</v>
       </c>
-      <c r="M3" s="112">
+      <c r="M3" s="111">
         <v>0</v>
       </c>
       <c r="N3" s="108"/>
@@ -1955,7 +1955,7 @@
         <v>106</v>
       </c>
       <c r="AQ6" s="11">
-        <f t="shared" ref="AO6:AQ26" si="9">AC6-AE6-AG6-AJ6-AK6-AL6-AM6-AN6-AO6-AP6</f>
+        <f t="shared" ref="AQ6:AQ26" si="9">AC6-AE6-AG6-AJ6-AK6-AL6-AM6-AN6-AO6-AP6</f>
         <v>11639.855</v>
       </c>
       <c r="AR6" s="74">
@@ -2230,7 +2230,7 @@
         <v>242</v>
       </c>
       <c r="AQ9" s="21">
-        <f t="shared" si="9"/>
+        <f>AC9-AE9-AG9-AJ9-AK9-AL9-AM9-AN9-AO9-AP9</f>
         <v>40700.25</v>
       </c>
       <c r="AR9" s="74">
@@ -2415,8 +2415,8 @@
       <c r="AP11" s="81">
         <v>199</v>
       </c>
-      <c r="AQ11" s="21">
-        <f t="shared" si="9"/>
+      <c r="AQ11" s="11">
+        <f t="shared" ref="AQ11:AQ15" si="10">AC11-AE11-AG11-AJ11-AK11-AL11-AM11-AN11-AO11-AP11</f>
         <v>21720.177500000002</v>
       </c>
       <c r="AR11" s="74">
@@ -2508,8 +2508,8 @@
       <c r="AP12" s="81">
         <v>200</v>
       </c>
-      <c r="AQ12" s="21">
-        <f t="shared" si="9"/>
+      <c r="AQ12" s="11">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AR12" s="74">
@@ -2607,8 +2607,8 @@
       <c r="AP13" s="81">
         <v>304</v>
       </c>
-      <c r="AQ13" s="21">
-        <f>AC13-AE13-AG13-AJ13-AK13-AL13-AM13-AN13-AO13-AP13</f>
+      <c r="AQ13" s="11">
+        <f t="shared" si="10"/>
         <v>18510.9575</v>
       </c>
       <c r="AR13" s="74">
@@ -2704,7 +2704,7 @@
         <v>150</v>
       </c>
       <c r="AQ14" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11495.6875</v>
       </c>
       <c r="AR14" s="74">
@@ -2797,7 +2797,7 @@
         <v>96</v>
       </c>
       <c r="AQ15" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13599.717500000001</v>
       </c>
       <c r="AR15" s="74">
@@ -3023,15 +3023,15 @@
         <v>0</v>
       </c>
       <c r="AD18" s="7">
-        <f t="shared" ref="AD18:AD23" si="10">D18*1</f>
+        <f t="shared" ref="AD18:AD23" si="11">D18*1</f>
         <v>0</v>
       </c>
       <c r="AE18" s="19">
-        <f t="shared" ref="AE18:AE23" si="11">D18*2.75%</f>
+        <f t="shared" ref="AE18:AE23" si="12">D18*2.75%</f>
         <v>0</v>
       </c>
       <c r="AF18" s="19">
-        <f t="shared" ref="AF18:AF23" si="12">AD18*0.95%</f>
+        <f t="shared" ref="AF18:AF23" si="13">AD18*0.95%</f>
         <v>0</v>
       </c>
       <c r="AG18" s="9">
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="AI18" s="19">
-        <f t="shared" ref="AI18:AI23" si="13">V18*0+W18*0+Y18*0+Z18*0+U18*0+AA18*0+AB18*9+S18*0</f>
+        <f t="shared" ref="AI18:AI23" si="14">V18*0+W18*0+Y18*0+Z18*0+U18*0+AA18*0+AB18*9+S18*0</f>
         <v>0</v>
       </c>
       <c r="AJ18" s="10"/>
@@ -3106,15 +3106,15 @@
         <v>0</v>
       </c>
       <c r="AD19" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE19" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF19" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AG19" s="9">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="AI19" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AJ19" s="10"/>
@@ -3143,11 +3143,11 @@
         <v>0</v>
       </c>
       <c r="AR19" s="74">
-        <f t="shared" ref="AR19:AR26" si="14">AF19+AH19+AI19</f>
+        <f t="shared" ref="AR19:AR26" si="15">AF19+AH19+AI19</f>
         <v>0</v>
       </c>
       <c r="AS19" s="74">
-        <f t="shared" ref="AS19:AS26" si="15">AR19-AP19-AN19</f>
+        <f t="shared" ref="AS19:AS26" si="16">AR19-AP19-AN19</f>
         <v>0</v>
       </c>
       <c r="AT19" s="6"/>
@@ -3189,15 +3189,15 @@
         <v>0</v>
       </c>
       <c r="AD20" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE20" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF20" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AG20" s="9">
@@ -3209,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="AI20" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AJ20" s="10"/>
@@ -3272,15 +3272,15 @@
         <v>0</v>
       </c>
       <c r="AD21" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE21" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF21" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AG21" s="9">
@@ -3292,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="AI21" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AJ21" s="10"/>
@@ -3309,11 +3309,11 @@
         <v>0</v>
       </c>
       <c r="AR21" s="74">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AS21" s="74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AT21" s="6"/>
@@ -3355,15 +3355,15 @@
         <v>0</v>
       </c>
       <c r="AD22" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE22" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF22" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AG22" s="9">
@@ -3375,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="AI22" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AJ22" s="7"/>
@@ -3392,11 +3392,11 @@
         <v>0</v>
       </c>
       <c r="AR22" s="74">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AS22" s="74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AT22" s="6"/>
@@ -3438,15 +3438,15 @@
         <v>0</v>
       </c>
       <c r="AD23" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE23" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF23" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AG23" s="9">
@@ -3458,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="AI23" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AJ23" s="10"/>
@@ -3475,11 +3475,11 @@
         <v>0</v>
       </c>
       <c r="AR23" s="74">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AS23" s="74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AT23" s="6"/>
@@ -3558,11 +3558,11 @@
         <v>0</v>
       </c>
       <c r="AR24" s="74">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AS24" s="74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AT24" s="6"/>
@@ -3641,11 +3641,11 @@
         <v>0</v>
       </c>
       <c r="AR25" s="74">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AS25" s="74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AT25" s="6"/>
@@ -3724,11 +3724,11 @@
         <v>0</v>
       </c>
       <c r="AR26" s="75">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AS26" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AT26" s="6"/>
@@ -3741,171 +3741,171 @@
       <c r="B27" s="103"/>
       <c r="C27" s="103"/>
       <c r="D27" s="34">
-        <f t="shared" ref="D27:AS27" si="16">SUM(D5:D26)</f>
+        <f t="shared" ref="D27:AS27" si="17">SUM(D5:D26)</f>
         <v>201647</v>
       </c>
       <c r="E27" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F27" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G27" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H27" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I27" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J27" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K27" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L27" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M27" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N27" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O27" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P27" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>780</v>
       </c>
       <c r="Q27" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R27" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S27" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T27" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U27" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="V27" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="W27" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X27" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Y27" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z27" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA27" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AB27" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC27" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>208667</v>
       </c>
       <c r="AD27" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>201647</v>
       </c>
       <c r="AE27" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5545.2925000000005</v>
       </c>
       <c r="AF27" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1915.6464999999998</v>
       </c>
       <c r="AG27" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>194.17499999999998</v>
       </c>
       <c r="AH27" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>66.69</v>
       </c>
       <c r="AI27" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AJ27" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AK27" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AL27" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AM27" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AN27" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AO27" s="87">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>24055.29</v>
       </c>
       <c r="AP27" s="88">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1827</v>
       </c>
       <c r="AQ27" s="89">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>177045.24249999999</v>
       </c>
       <c r="AR27" s="89">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1982.3364999999999</v>
       </c>
       <c r="AS27" s="35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>155.33650000000006</v>
       </c>
       <c r="AT27" s="27"/>
@@ -3923,23 +3923,23 @@
         <v>0</v>
       </c>
       <c r="F28" s="52">
-        <f t="shared" ref="F28:R28" si="17">F3-F27</f>
+        <f t="shared" ref="F28:R28" si="18">F3-F27</f>
         <v>0</v>
       </c>
       <c r="G28" s="52">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H28" s="52">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I28" s="52">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J28" s="52">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K28" s="53">
@@ -3947,31 +3947,31 @@
         <v>0</v>
       </c>
       <c r="L28" s="53">
-        <f t="shared" ref="L28:P28" si="18">L3-L27</f>
+        <f t="shared" ref="L28:P28" si="19">L3-L27</f>
         <v>300</v>
       </c>
       <c r="M28" s="53">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="53">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="53">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="53">
+        <f t="shared" si="19"/>
+        <v>13590</v>
+      </c>
+      <c r="Q28" s="52">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="N28" s="53">
+      <c r="R28" s="52">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="53">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="53">
-        <f t="shared" si="18"/>
-        <v>13590</v>
-      </c>
-      <c r="Q28" s="52">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="52">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S28" s="54"/>
